--- a/doc/managment/Projektsteckbrief_Gruppe4.xlsx
+++ b/doc/managment/Projektsteckbrief_Gruppe4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\GitHub\vorlesungs-planung\doc\managment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E55471-1171-4E1A-82B2-406D1B33B93E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F683C8-8B87-48F2-8721-9F56738111D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="103">
   <si>
     <t>Projekttitel</t>
   </si>
@@ -265,24 +265,12 @@
     <t>Gruppe 4</t>
   </si>
   <si>
-    <t>Login (Sekretariat, Dozent, Student), Kalenderansicht, Darkmode Support,</t>
-  </si>
-  <si>
-    <t>Das Organisieren der Vorlesungen ist kompliziert und verbraucht viel Zeit</t>
-  </si>
-  <si>
-    <t>Datenschutz(DSGVO), IT-Infrastruktur DHBW</t>
-  </si>
-  <si>
     <t>Mehrsprachig, Mobile support, eigene Datenbank errichten, Internet Explorer support</t>
   </si>
   <si>
     <t>benötigte Planungszeit/Kurs</t>
   </si>
   <si>
-    <t xml:space="preserve">Planung der Umsetzung des Vorlesungsplanungs-Tools durch Gruppe 4 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Implementierung des Vorlesungsplanungs-Tools durch Gruppe 4 </t>
   </si>
   <si>
@@ -380,6 +368,21 @@
   </si>
   <si>
     <t>Testdaten nicht prod. übertragbar</t>
+  </si>
+  <si>
+    <t>David Schüler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planung  des Vorlesungsplanungs-Tools mithilfe von Mockups durch Gruppe 4 </t>
+  </si>
+  <si>
+    <t>Login (Sekretariat, Dozent, Student), Kalender mit Terminansicht und Interaktionsmöglichkeiten, Darkmode Support</t>
+  </si>
+  <si>
+    <t>Das Organisieren der Vorlesungen ist kompliziert und braucht viel Zeit</t>
+  </si>
+  <si>
+    <t>SZI, Anwendungsprojekt TIF</t>
   </si>
 </sst>
 </file>
@@ -1409,6 +1412,90 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1418,19 +1505,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1465,84 +1546,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1560,10 +1563,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1868,8 +1867,8 @@
   </sheetPr>
   <dimension ref="B1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:H12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1897,232 +1896,232 @@
         <v>24</v>
       </c>
       <c r="H1" s="71" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="75"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="103"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="78" t="s">
         <v>54</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="116" t="s">
-        <v>55</v>
+      <c r="E3" s="78" t="s">
+        <v>98</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="117" t="s">
-        <v>100</v>
+      <c r="G3" s="79" t="s">
+        <v>96</v>
       </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="98" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="84"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="110"/>
     </row>
     <row r="5" spans="2:8" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="93"/>
+      <c r="B5" s="99"/>
       <c r="C5" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="85" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
+      <c r="D5" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
       <c r="H5" s="48" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="89"/>
+      <c r="D6" s="113" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="115"/>
       <c r="H6" s="15" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="87" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="89"/>
+      <c r="D7" s="113" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="115"/>
       <c r="H7" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
+      <c r="D8" s="116" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
       <c r="H8" s="17" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="114" t="s">
+      <c r="C9" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="115"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="106"/>
     </row>
     <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="98" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="76" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="78"/>
+      <c r="D10" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="94"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="94"/>
+      <c r="B11" s="88"/>
       <c r="C11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="79" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="81"/>
+      <c r="D11" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="107"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="80" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="78"/>
+      <c r="D12" s="92" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="94"/>
     </row>
     <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="98"/>
+      <c r="B13" s="82"/>
       <c r="C13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="79" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="108"/>
+      <c r="D13" s="95" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="97"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="92" t="s">
+      <c r="B14" s="98" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="112">
+      <c r="D14" s="76">
         <v>44312</v>
       </c>
-      <c r="E14" s="113" t="s">
+      <c r="E14" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="112">
+      <c r="F14" s="76">
         <v>44367</v>
       </c>
-      <c r="G14" s="113"/>
+      <c r="G14" s="77"/>
       <c r="H14" s="43"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="95"/>
+      <c r="B15" s="100"/>
       <c r="C15" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="57" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E15" s="57" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F15" s="53"/>
       <c r="G15" s="54"/>
       <c r="H15" s="55"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="95"/>
+      <c r="B16" s="100"/>
       <c r="C16" s="52" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="57" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="22"/>
       <c r="H16" s="24"/>
     </row>
     <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="94"/>
+      <c r="B17" s="88"/>
       <c r="C17" s="10" t="s">
         <v>41</v>
       </c>
@@ -2131,73 +2130,73 @@
       <c r="H17" s="26"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="92" t="s">
+      <c r="B18" s="98" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D18" s="64" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="65" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F18" s="64" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="65" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H18" s="21"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="95"/>
+      <c r="B19" s="100"/>
       <c r="C19" s="28" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D19" s="66" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="67" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F19" s="66" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="24"/>
+    </row>
+    <row r="20" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="87"/>
+      <c r="C20" s="28" t="s">
         <v>92</v>
-      </c>
-      <c r="H19" s="24"/>
-    </row>
-    <row r="20" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="96"/>
-      <c r="C20" s="28" t="s">
-        <v>96</v>
       </c>
       <c r="D20" s="66" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="69" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F20" s="66" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="69" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H20" s="24"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="104" t="s">
+      <c r="B21" s="89" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="70" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>21</v>
@@ -2213,12 +2212,12 @@
       </c>
     </row>
     <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="105"/>
+      <c r="B22" s="90"/>
       <c r="C22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="109" t="s">
-        <v>72</v>
+      <c r="D22" s="73" t="s">
+        <v>68</v>
       </c>
       <c r="E22" s="32" t="s">
         <v>30</v>
@@ -2229,17 +2228,17 @@
       <c r="G22" s="34">
         <v>0</v>
       </c>
-      <c r="H22" s="110">
+      <c r="H22" s="74">
         <v>21000</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="105"/>
+      <c r="B23" s="90"/>
       <c r="C23" s="35" t="s">
         <v>44</v>
       </c>
       <c r="D23" s="50" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E23" s="36" t="s">
         <v>22</v>
@@ -2255,7 +2254,7 @@
       </c>
     </row>
     <row r="24" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="106"/>
+      <c r="B24" s="91"/>
       <c r="C24" s="40" t="s">
         <v>14</v>
       </c>
@@ -2270,12 +2269,12 @@
         <f>SUM(G21:G23)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="111">
+      <c r="H24" s="75">
         <v>1500</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="102" t="s">
+      <c r="B25" s="85" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="42"/>
@@ -2290,7 +2289,7 @@
       <c r="H25" s="43"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="102"/>
+      <c r="B26" s="85"/>
       <c r="C26" s="42" t="s">
         <v>25</v>
       </c>
@@ -2305,7 +2304,7 @@
       <c r="H26" s="43"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="102"/>
+      <c r="B27" s="85"/>
       <c r="C27" s="42" t="s">
         <v>26</v>
       </c>
@@ -2320,7 +2319,7 @@
       <c r="H27" s="43"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="102"/>
+      <c r="B28" s="85"/>
       <c r="C28" s="42" t="s">
         <v>27</v>
       </c>
@@ -2335,7 +2334,7 @@
       <c r="H28" s="43"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="103"/>
+      <c r="B29" s="86"/>
       <c r="C29" s="7" t="s">
         <v>16</v>
       </c>
@@ -2343,14 +2342,14 @@
         <v>62</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
       <c r="H29" s="43"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="96"/>
+      <c r="B30" s="87"/>
       <c r="C30" s="22" t="s">
         <v>36</v>
       </c>
@@ -2358,14 +2357,14 @@
         <v>61</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F30" s="23"/>
       <c r="G30" s="42"/>
       <c r="H30" s="43"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="96"/>
+      <c r="B31" s="87"/>
       <c r="C31" s="22" t="s">
         <v>37</v>
       </c>
@@ -2380,7 +2379,7 @@
       <c r="H31" s="43"/>
     </row>
     <row r="32" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="94"/>
+      <c r="B32" s="88"/>
       <c r="C32" s="10" t="s">
         <v>23</v>
       </c>
@@ -2388,14 +2387,14 @@
         <v>61</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
       <c r="H32" s="26"/>
     </row>
     <row r="33" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B33" s="97" t="s">
+      <c r="B33" s="80" t="s">
         <v>46</v>
       </c>
       <c r="C33" s="20" t="s">
@@ -2407,33 +2406,33 @@
       <c r="E33" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="F33" s="100" t="s">
+      <c r="F33" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="100"/>
-      <c r="H33" s="101"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="84"/>
     </row>
     <row r="34" spans="2:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="99"/>
+      <c r="B34" s="81"/>
       <c r="C34" s="58" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D34" s="59" t="s">
         <v>20</v>
       </c>
       <c r="E34" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" s="62" t="s">
         <v>84</v>
-      </c>
-      <c r="F34" s="62" t="s">
-        <v>88</v>
       </c>
       <c r="G34" s="45"/>
       <c r="H34" s="46"/>
     </row>
     <row r="35" spans="2:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="99"/>
+      <c r="B35" s="81"/>
       <c r="C35" s="60" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D35" s="57" t="s">
         <v>19</v>
@@ -2442,24 +2441,24 @@
         <v>19</v>
       </c>
       <c r="F35" s="63" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="47"/>
     </row>
     <row r="36" spans="2:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="98"/>
+      <c r="B36" s="82"/>
       <c r="C36" s="61" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D36" s="56" t="s">
         <v>19</v>
       </c>
       <c r="E36" s="56" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="26"/>
@@ -2477,17 +2476,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B12:B13"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="D10:H10"/>
@@ -2497,6 +2485,17 @@
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="D8:G8"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/doc/managment/Projektsteckbrief_Gruppe4.xlsx
+++ b/doc/managment/Projektsteckbrief_Gruppe4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\GitHub\vorlesungs-planung\doc\managment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F683C8-8B87-48F2-8721-9F56738111D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B58737-8088-4701-AE7F-2FFB397F1109}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="108">
   <si>
     <t>Projekttitel</t>
   </si>
@@ -127,18 +127,12 @@
     <t>Kernteam</t>
   </si>
   <si>
-    <t>Gegenmaßnahmen</t>
-  </si>
-  <si>
     <t>Eintrittswahr-scheinlichkeit</t>
   </si>
   <si>
     <t>mittel</t>
   </si>
   <si>
-    <t>gering</t>
-  </si>
-  <si>
     <t>Lizenzen/Software</t>
   </si>
   <si>
@@ -313,24 +307,6 @@
     <t>Abg.Projektsteckbrief</t>
   </si>
   <si>
-    <t xml:space="preserve">schlechte Projektplanung </t>
-  </si>
-  <si>
-    <t>hoch</t>
-  </si>
-  <si>
-    <t>strukutriertes Vorgehen</t>
-  </si>
-  <si>
-    <t>informieren im Voraus</t>
-  </si>
-  <si>
-    <t>Backend nicht fristgerecht fertig</t>
-  </si>
-  <si>
-    <t>Priorisierung</t>
-  </si>
-  <si>
     <t>davon Kommunikationszeit</t>
   </si>
   <si>
@@ -367,9 +343,6 @@
     <t>DHBW-Kostenstelle</t>
   </si>
   <si>
-    <t>Testdaten nicht prod. übertragbar</t>
-  </si>
-  <si>
     <t>David Schüler</t>
   </si>
   <si>
@@ -383,6 +356,48 @@
   </si>
   <si>
     <t>SZI, Anwendungsprojekt TIF</t>
+  </si>
+  <si>
+    <t>Sekräterinnen unzufrieden mit Beta</t>
+  </si>
+  <si>
+    <t>Mittel</t>
+  </si>
+  <si>
+    <t>Kritisch</t>
+  </si>
+  <si>
+    <t>Absprache im Voraus</t>
+  </si>
+  <si>
+    <t>Missverständnis im Team</t>
+  </si>
+  <si>
+    <t>Klare Planung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gegenmaßnahmen: </t>
+  </si>
+  <si>
+    <t>Unvorhergesehene Teamausfälle</t>
+  </si>
+  <si>
+    <t>Homeoffice</t>
+  </si>
+  <si>
+    <t>Vorbeugung</t>
+  </si>
+  <si>
+    <t>Reaktion</t>
+  </si>
+  <si>
+    <t>Nacharbeitung</t>
+  </si>
+  <si>
+    <t>Umverteilung</t>
+  </si>
+  <si>
+    <t>klare Absprache</t>
   </si>
 </sst>
 </file>
@@ -658,21 +673,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1186,6 +1186,19 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1194,7 +1207,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1202,37 +1215,37 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1244,19 +1257,19 @@
     <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1265,13 +1278,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1286,7 +1299,7 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1298,70 +1311,61 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1376,11 +1380,8 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1406,58 +1407,73 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1466,7 +1482,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1478,22 +1494,22 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1505,16 +1521,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1523,28 +1542,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1865,10 +1881,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H38"/>
+  <dimension ref="B1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1886,379 +1902,379 @@
   <sheetData>
     <row r="1" spans="2:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
       <c r="F1" s="19"/>
-      <c r="G1" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="71" t="s">
-        <v>70</v>
+      <c r="G1" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="67" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="101" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="103"/>
+      <c r="C2" s="102" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="104"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="78" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="78" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="79" t="s">
-        <v>96</v>
+      <c r="G3" s="75" t="s">
+        <v>88</v>
       </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="108" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="110"/>
+      <c r="C4" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="109" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="111"/>
     </row>
     <row r="5" spans="2:8" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="99"/>
+      <c r="B5" s="100"/>
       <c r="C5" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="111" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="48" t="s">
-        <v>70</v>
+        <v>26</v>
+      </c>
+      <c r="D5" s="112" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="45" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="115"/>
+      <c r="D6" s="114" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="116"/>
       <c r="H6" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="113" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="115"/>
+      <c r="D7" s="114" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="116"/>
       <c r="H7" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="116" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
+      <c r="D8" s="117" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
       <c r="H8" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="104" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="106"/>
+      <c r="C9" s="105" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="107"/>
     </row>
     <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="99" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="92" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="94"/>
+      <c r="D10" s="93" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="95"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="88"/>
+      <c r="B11" s="89"/>
       <c r="C11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="95" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="107"/>
+      <c r="D11" s="96" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="108"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="83" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="92" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="94"/>
+      <c r="D12" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="95"/>
     </row>
     <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="82"/>
+      <c r="B13" s="85"/>
       <c r="C13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="95" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="97"/>
+      <c r="D13" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="98"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="99" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="72">
+        <v>44312</v>
+      </c>
+      <c r="E14" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="72">
+        <v>44367</v>
+      </c>
+      <c r="G14" s="73"/>
+      <c r="H14" s="43"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="101"/>
+      <c r="C15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="76">
-        <v>44312</v>
-      </c>
-      <c r="E14" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="76">
-        <v>44367</v>
-      </c>
-      <c r="G14" s="77"/>
-      <c r="H14" s="43"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="100"/>
-      <c r="C15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="53"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="55"/>
+      <c r="D15" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="52"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="100"/>
-      <c r="C16" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="57" t="s">
-        <v>76</v>
+      <c r="B16" s="101"/>
+      <c r="C16" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="54" t="s">
+        <v>74</v>
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="22"/>
       <c r="H16" s="24"/>
     </row>
     <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="88"/>
+      <c r="B17" s="89"/>
       <c r="C17" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="10"/>
       <c r="H17" s="26"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="98" t="s">
+      <c r="B18" s="99" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="65" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="64" t="s">
+      <c r="E18" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="65" t="s">
-        <v>87</v>
+      <c r="G18" s="61" t="s">
+        <v>79</v>
       </c>
       <c r="H18" s="21"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="100"/>
+      <c r="B19" s="101"/>
       <c r="C19" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="67" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" s="66" t="s">
+      <c r="E19" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="68" t="s">
-        <v>88</v>
+      <c r="G19" s="64" t="s">
+        <v>80</v>
       </c>
       <c r="H19" s="24"/>
     </row>
     <row r="20" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="87"/>
+      <c r="B20" s="88"/>
       <c r="C20" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="66" t="s">
+      <c r="E20" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="69" t="s">
-        <v>90</v>
+      <c r="G20" s="65" t="s">
+        <v>82</v>
       </c>
       <c r="H20" s="24"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="89" t="s">
+      <c r="B21" s="90" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="70" t="s">
-        <v>69</v>
+        <v>41</v>
+      </c>
+      <c r="D21" s="66" t="s">
+        <v>67</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G21" s="30">
         <v>0</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="90"/>
+      <c r="B22" s="91"/>
       <c r="C22" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="73" t="s">
-        <v>68</v>
+        <v>45</v>
+      </c>
+      <c r="D22" s="69" t="s">
+        <v>66</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G22" s="34">
         <v>0</v>
       </c>
-      <c r="H22" s="74">
+      <c r="H22" s="70">
         <v>21000</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="90"/>
+      <c r="B23" s="91"/>
       <c r="C23" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="50" t="s">
-        <v>74</v>
+        <v>42</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>72</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G23" s="38">
         <v>0</v>
       </c>
       <c r="H23" s="39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="91"/>
+      <c r="B24" s="92"/>
       <c r="C24" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="51">
+      <c r="D24" s="48">
         <v>22500</v>
       </c>
       <c r="E24" s="11" t="s">
@@ -2269,213 +2285,222 @@
         <f>SUM(G21:G23)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="75">
+      <c r="H24" s="71">
         <v>1500</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="85" t="s">
+      <c r="B25" s="86" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="42"/>
       <c r="D25" s="42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F25" s="42"/>
       <c r="G25" s="42"/>
       <c r="H25" s="43"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="85"/>
+      <c r="B26" s="86"/>
       <c r="C26" s="42" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F26" s="42"/>
       <c r="G26" s="42"/>
       <c r="H26" s="43"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="85"/>
+      <c r="B27" s="86"/>
       <c r="C27" s="42" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F27" s="42"/>
       <c r="G27" s="42"/>
       <c r="H27" s="43"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="85"/>
+      <c r="B28" s="86"/>
       <c r="C28" s="42" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F28" s="42"/>
       <c r="G28" s="42"/>
       <c r="H28" s="43"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="86"/>
+      <c r="B29" s="87"/>
       <c r="C29" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
       <c r="H29" s="43"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="87"/>
+      <c r="B30" s="88"/>
       <c r="C30" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F30" s="23"/>
       <c r="G30" s="42"/>
       <c r="H30" s="43"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="87"/>
+      <c r="B31" s="88"/>
       <c r="C31" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D31" s="42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F31" s="23"/>
       <c r="G31" s="42"/>
       <c r="H31" s="43"/>
     </row>
     <row r="32" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="88"/>
+      <c r="B32" s="89"/>
       <c r="C32" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
       <c r="H32" s="26"/>
     </row>
-    <row r="33" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B33" s="80" t="s">
+    <row r="33" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B33" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="G33" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="H33" s="80" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="84"/>
+      <c r="C34" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34" s="78" t="s">
+        <v>97</v>
+      </c>
+      <c r="H34" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="I34" s="79"/>
+    </row>
+    <row r="35" spans="2:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="84"/>
+      <c r="C35" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="G35" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="H35" s="81" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="85"/>
+      <c r="C36" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" s="77"/>
+      <c r="G36" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H36" s="82" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" s="83" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="83"/>
-      <c r="H33" s="84"/>
-    </row>
-    <row r="34" spans="2:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="81"/>
-      <c r="C34" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="F34" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="G34" s="45"/>
-      <c r="H34" s="46"/>
-    </row>
-    <row r="35" spans="2:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="81"/>
-      <c r="C35" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="47"/>
-    </row>
-    <row r="36" spans="2:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="82"/>
-      <c r="C36" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="26"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>50</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="19">
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="D10:H10"/>
@@ -2491,7 +2516,6 @@
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B33:B36"/>
-    <mergeCell ref="F33:H33"/>
     <mergeCell ref="B25:B32"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="D12:H12"/>

--- a/doc/managment/Projektsteckbrief_Gruppe4.xlsx
+++ b/doc/managment/Projektsteckbrief_Gruppe4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\GitHub\vorlesungs-planung\doc\managment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/47ecaf68cb2ce00e/Desktop/Studium/2_Sem/Anwendungsprojekt/vorlesungs-planung/doc/managment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B58737-8088-4701-AE7F-2FFB397F1109}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{77B58737-8088-4701-AE7F-2FFB397F1109}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{490C2D86-B26F-4608-9963-24CACD3645C3}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -405,9 +405,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -528,7 +528,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -673,21 +673,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -790,23 +775,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -822,46 +794,20 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -918,21 +864,6 @@
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1031,30 +962,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -1119,21 +1026,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -1202,12 +1094,232 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1215,174 +1327,135 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="3" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1404,22 +1477,22 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="10" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="10" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1428,7 +1501,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1437,7 +1510,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1446,44 +1519,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1494,74 +1543,161 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1883,608 +2019,608 @@
   </sheetPr>
   <dimension ref="B1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="68" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="54" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="104"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="126"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="106" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="74" t="s">
+      <c r="E3" s="61" t="s">
         <v>89</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="75" t="s">
+      <c r="G3" s="62" t="s">
         <v>88</v>
       </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="111"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="79"/>
     </row>
     <row r="5" spans="2:8" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="100"/>
-      <c r="C5" s="42" t="s">
+      <c r="B5" s="111"/>
+      <c r="C5" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="112" t="s">
+      <c r="D5" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="45" t="s">
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="37" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="114" t="s">
+      <c r="B6" s="120"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="15" t="s">
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="11" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="114" t="s">
+      <c r="B7" s="121"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="16" t="s">
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="117" t="s">
+      <c r="B8" s="122"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="17" t="s">
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="107"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
     </row>
     <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="93" t="s">
+      <c r="D10" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="95"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="89"/>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="111"/>
+      <c r="C11" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="96" t="s">
+      <c r="D11" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="108"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="76"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="93" t="s">
+      <c r="D12" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="95"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="74"/>
     </row>
     <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="85"/>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="109"/>
+      <c r="C13" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="96" t="s">
+      <c r="D13" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="98"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="88"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="99" t="s">
+      <c r="B14" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="72">
+      <c r="D14" s="59">
         <v>44312</v>
       </c>
-      <c r="E14" s="73" t="s">
+      <c r="E14" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="72">
+      <c r="F14" s="59">
         <v>44367</v>
       </c>
-      <c r="G14" s="73"/>
-      <c r="H14" s="43"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="35"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="101"/>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="112"/>
+      <c r="C15" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="52"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="42"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="101"/>
-      <c r="C16" s="49" t="s">
+      <c r="B16" s="112"/>
+      <c r="C16" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="54" t="s">
+      <c r="E16" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="24"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="89"/>
-      <c r="C17" s="10" t="s">
+      <c r="B17" s="111"/>
+      <c r="C17" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="26"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="21"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="99" t="s">
+      <c r="B18" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="60" t="s">
+      <c r="D18" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="61" t="s">
+      <c r="E18" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="60" t="s">
+      <c r="F18" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="61" t="s">
+      <c r="G18" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="H18" s="21"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="101"/>
-      <c r="C19" s="28" t="s">
+      <c r="B19" s="112"/>
+      <c r="C19" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="62" t="s">
+      <c r="D19" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="63" t="s">
+      <c r="E19" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="62" t="s">
+      <c r="F19" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="64" t="s">
+      <c r="G19" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="H19" s="24"/>
+      <c r="H19" s="19"/>
     </row>
     <row r="20" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="88"/>
-      <c r="C20" s="28" t="s">
+      <c r="B20" s="113"/>
+      <c r="C20" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="62" t="s">
+      <c r="D20" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="65" t="s">
+      <c r="E20" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="F20" s="62" t="s">
+      <c r="F20" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="65" t="s">
+      <c r="G20" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="H20" s="24"/>
+      <c r="H20" s="19"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="90" t="s">
+      <c r="B21" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="66" t="s">
+      <c r="D21" s="53" t="s">
         <v>67</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G21" s="30">
+      <c r="G21" s="23">
         <v>0</v>
       </c>
-      <c r="H21" s="31" t="s">
+      <c r="H21" s="24" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="91"/>
-      <c r="C22" s="7" t="s">
+      <c r="B22" s="115"/>
+      <c r="C22" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="69" t="s">
+      <c r="D22" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22" s="27">
         <v>0</v>
       </c>
-      <c r="H22" s="70">
+      <c r="H22" s="57">
         <v>21000</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="91"/>
-      <c r="C23" s="35" t="s">
+      <c r="B23" s="115"/>
+      <c r="C23" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="47" t="s">
+      <c r="D23" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="G23" s="38">
+      <c r="G23" s="30">
         <v>0</v>
       </c>
-      <c r="H23" s="39" t="s">
+      <c r="H23" s="31" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="92"/>
-      <c r="C24" s="40" t="s">
+      <c r="B24" s="116"/>
+      <c r="C24" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="48">
+      <c r="D24" s="39">
         <v>22500</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41">
+      <c r="F24" s="32"/>
+      <c r="G24" s="33">
         <f>SUM(G21:G23)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="71">
+      <c r="H24" s="58">
         <v>1500</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="86" t="s">
+      <c r="B25" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42" t="s">
+      <c r="C25" s="102"/>
+      <c r="D25" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="42" t="s">
+      <c r="E25" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="43"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="35"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="86"/>
-      <c r="C26" s="42" t="s">
+      <c r="B26" s="117"/>
+      <c r="C26" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="43"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="35"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="86"/>
-      <c r="C27" s="42" t="s">
+      <c r="B27" s="117"/>
+      <c r="C27" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="35"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="86"/>
-      <c r="C28" s="42" t="s">
+      <c r="B28" s="117"/>
+      <c r="C28" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="42" t="s">
+      <c r="E28" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="43"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="35"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="87"/>
-      <c r="C29" s="7" t="s">
+      <c r="B29" s="118"/>
+      <c r="C29" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="43"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="35"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="88"/>
-      <c r="C30" s="22" t="s">
+      <c r="B30" s="113"/>
+      <c r="C30" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="42" t="s">
+      <c r="D30" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="43"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="35"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="88"/>
-      <c r="C31" s="22" t="s">
+      <c r="B31" s="113"/>
+      <c r="C31" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="42" t="s">
+      <c r="D31" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="43"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="35"/>
     </row>
     <row r="32" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="89"/>
-      <c r="C32" s="10" t="s">
+      <c r="B32" s="111"/>
+      <c r="C32" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="26"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="21"/>
     </row>
     <row r="33" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B33" s="83" t="s">
+      <c r="B33" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="44" t="s">
+      <c r="D33" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="44" t="s">
+      <c r="E33" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="76" t="s">
+      <c r="F33" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="G33" s="76" t="s">
+      <c r="G33" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="H33" s="80" t="s">
+      <c r="H33" s="67" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="84"/>
-      <c r="C34" s="55" t="s">
+      <c r="B34" s="108"/>
+      <c r="C34" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="56" t="s">
+      <c r="D34" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="56" t="s">
+      <c r="E34" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="G34" s="78" t="s">
+      <c r="G34" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="H34" s="56" t="s">
+      <c r="H34" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="I34" s="79"/>
+      <c r="I34" s="66"/>
     </row>
     <row r="35" spans="2:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="84"/>
-      <c r="C35" s="57" t="s">
+      <c r="B35" s="108"/>
+      <c r="C35" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="54" t="s">
+      <c r="D35" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="E35" s="54" t="s">
+      <c r="E35" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="G35" s="59" t="s">
+      <c r="G35" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="H35" s="81" t="s">
+      <c r="H35" s="68" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="85"/>
-      <c r="C36" s="58" t="s">
+      <c r="B36" s="109"/>
+      <c r="C36" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="53" t="s">
+      <c r="D36" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="53" t="s">
+      <c r="E36" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="F36" s="77"/>
-      <c r="G36" s="13" t="s">
+      <c r="F36" s="64"/>
+      <c r="G36" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="H36" s="82" t="s">
+      <c r="H36" s="69" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2500,7 +2636,18 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B6:B8"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="D10:H10"/>
@@ -2510,16 +2657,6 @@
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="D8:G8"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
